--- a/pred_ohlcv/54_21/2020-01-25 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8532.351753579995</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7834.740253579995</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6673.563607869994</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6682.295507869994</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>7537.941207869994</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>9093.544807869994</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>10099.71820786999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>11461.79700786999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>10869.06990786999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6070.237107869993</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6206.661907869992</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6206.661907869992</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1751.926907869993</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1751.926907869993</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2175.513141989993</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1794.052041989993</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>244.9049419899927</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1994.001941989993</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2325.204041989993</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2656.718441989993</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2656.718441989993</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2740.855141989993</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2740.855141989993</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2885.897241989993</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2070.844941989993</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2551.407741989993</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1551.407741989993</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>275.7077419899931</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1062.235658010007</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6413.927358010005</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6858.668658010005</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6948.846058010005</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-6870.501958010004</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7166.318658010004</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-7162.858558010004</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-7163.877448780005</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7163.877448780005</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7405.615448780005</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-8506.910048780004</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-8159.860548780005</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8290.098148780005</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3495.190448780006</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3645.190448780006</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4745.190448780006</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4680.726948780006</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-31051.26814878001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-23857.86194878001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-24250.32215038001</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-24395.89325038001</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-23189.77125038001</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-23189.77125038001</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-23307.29745038001</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-22688.88945038001</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-22045.18255038001</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-22195.18255038001</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-22498.78855038001</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-22873.05055038001</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-21261.35045038001</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-20229.17725038001</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-17641.42945038001</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-17543.52085038001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-17504.89565038001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-19230.59975038001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-18323.03345038001</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-20708.28775038002</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-19539.98245038002</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-22001.09695038002</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-21760.49525038002</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-18209.42387261002</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-17715.94577261002</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-27987.16757261002</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-28352.32397261002</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-28402.32397261002</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-28662.32397261002</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-28767.27737261002</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-29045.61177261002</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-29877.12927261002</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-31732.01077261002</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-31962.09787261002</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-31460.39977261002</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-31468.57087261002</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-31346.57087261002</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-32165.03937261002</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-32531.04787261002</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-33463.00527261002</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-27488.32094887003</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-27488.12094887003</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-28357.24474887002</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-28407.26514887002</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-27907.26514887002</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-26600.78564887002</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-29515.88724887003</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-28394.20714887002</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-32008.62724887002</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-32152.07664887002</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-32795.55804887002</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-32845.55804887002</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-32184.67194887002</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-32057.09194887002</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-32297.30144887002</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-32279.36754887002</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-32399.14174887002</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-33152.23504887002</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-32925.43834887002</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-33230.86114887002</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-33231.10304887002</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-32966.39354887002</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-32840.54244887002</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-33264.37054887002</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-33070.37054887002</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-32754.27184887002</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-33449.90324887002</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-34507.45424440003</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-34541.22914440002</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-34502.09674440002</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-45526.71104440002</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-45605.44104440002</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-45718.74744440002</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-43061.00424440001</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-43919.57324440002</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-211008.7445391099</v>
       </c>
       <c r="H836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-210974.3422391099</v>
       </c>
       <c r="H837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-210882.79473911</v>
       </c>
       <c r="H839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-210640.1749855099</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-208004.9089855099</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-212827.03188551</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-217328.81118551</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-217900.99738551</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-217900.99738551</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-214105.91588551</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-216958.63478551</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-225960.66808551</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-225131.41608551</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-227592.40568551</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-227435.06478551</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-227213.21568551</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-214867.84868551</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-174449.16972776</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-173088.72162776</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-172300.37432776</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-156400.95357357</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-167570.38102091</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-155150.13081896</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-138780.96212091</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-129581.31946585</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-133367.01916585</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-136104.09979317</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-136104.09979317</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-136856.29689317</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-136141.55609317</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-135709.01329317</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-147107.47601703</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-147471.69551703</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-148767.37111703</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-150038.84461703</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-106563.53674377</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-98917.22344377002</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-100561.47474377</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-106024.23334377</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-109674.06244377</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-112369.30634377</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-109888.7841437701</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-110061.7841437701</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-109701.7841437701</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-109766.6970437701</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-115036.01414631</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-118209.21134631</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-118122.90024631</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-118527.13724631</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-116603.77997355</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-118247.97437355</v>
       </c>
       <c r="H1036">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-120383.47517355</v>
       </c>
       <c r="H1037">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-119909.36167355</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-119783.61167355</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8532.351753579995</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>7834.740253579995</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>6673.563607869994</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>6682.295507869994</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>7537.941207869994</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>9093.544807869994</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>10099.71820786999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>11461.79700786999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>10869.06990786999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6070.237107869993</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>6206.661907869992</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>6206.661907869992</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1751.926907869993</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1751.926907869993</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6413.927358010005</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6858.668658010005</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-6948.846058010005</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-6870.501958010004</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-7055.697358010004</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-7166.318658010004</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-7158.285958010004</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-7162.858558010004</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-7163.877448780005</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-7163.877448780005</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-7405.615448780005</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-8506.910048780004</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-8701.707548780005</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-7299.634148780005</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-8159.860548780005</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-9457.089448780005</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-8290.098148780005</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3495.190448780006</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3645.190448780006</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4745.190448780006</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-31051.26814878001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-23857.86194878001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-21987.78851720001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-21987.78851720001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-27264.90924341</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-27262.90924341</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-25354.00034341</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-25173.97454341</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-25173.97454341</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-25237.26884341001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-25579.14424341001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-25175.99334341001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-25175.99334341001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-25179.01334341001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-25179.01334341001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-24379.79614341001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-24250.32215038001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-24250.32215038001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-24395.89325038001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-23189.77125038001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-23189.77125038001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-23307.29745038001</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-22688.88945038001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-22045.18255038001</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-22195.18255038001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-22128.91275038001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-22074.69275038001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-22498.78855038001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-22466.63715038001</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-22873.05055038001</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-22466.71125038001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-22421.35045038001</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-21261.35045038001</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-20229.17725038001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-17641.42945038001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-17543.52085038001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-17504.89565038001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-19230.59975038001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-18323.03345038001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-20708.28775038002</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-20108.28775038002</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-19539.98245038002</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-22001.09695038002</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-21760.49525038002</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-18896.53297261002</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-19301.13027261002</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-18209.42387261002</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-17715.94577261002</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-19723.49017261002</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-27987.16757261002</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-28020.16757261002</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-28352.32397261002</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-28402.32397261002</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-28662.32397261002</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-28767.27737261002</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-29045.61177261002</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-29877.12927261002</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-31732.01077261002</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-32165.03937261002</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-32531.04787261002</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-30525.09443824003</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-30525.09443824003</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-26712.85184887003</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-27488.32094887003</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-27488.32094887003</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-27488.12094887003</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-28357.44474887002</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-28357.24474887002</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-28407.26514887002</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-27907.26514887002</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-26600.78564887002</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-28631.74904887002</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-29515.88724887003</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-28394.20714887002</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-32008.62724887002</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-32152.07664887002</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-32795.55804887002</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-32845.55804887002</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-32294.25274887002</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-32184.67194887002</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-32434.67194887002</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-32057.09194887002</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-32297.30144887002</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-32279.36754887002</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-32416.77644887002</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-32899.14174887002</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-32399.14174887002</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-33152.23504887002</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-33183.65444887002</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-32925.43834887002</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-33230.86114887002</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-33231.10304887002</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-32966.39354887002</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-32549.37594887002</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-32840.54244887002</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-33264.37054887002</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-33070.37054887002</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-33093.65414887002</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-32754.27184887002</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-33449.90324887002</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-34500.18404440003</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-34507.45424440003</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-34541.22914440002</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-34502.09674440002</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-45564.80314440002</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-45512.27984440002</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-45526.71104440002</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-45605.44104440002</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-45763.67504440002</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-45718.74744440002</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-208004.9089855099</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-214105.91588551</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-216958.63478551</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-225960.66808551</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-225131.41608551</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-227592.40568551</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-227435.06478551</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-227213.21568551</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-214867.84868551</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-174449.16972776</v>
       </c>
       <c r="H903">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-173088.72162776</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-172300.37432776</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-156400.95357357</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-167570.38102091</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-155150.13081896</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-138780.96212091</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-129581.31946585</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-133367.01916585</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-136104.09979317</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-136104.09979317</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-136856.29689317</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-136141.55609317</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-135709.01329317</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-147107.47601703</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-147471.69551703</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-148767.37111703</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-150038.84461703</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-106024.23334377</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-109674.06244377</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-112721.04704377</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-109589.1547437701</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-109888.7841437701</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-110061.7841437701</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-109701.7841437701</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-109766.6970437701</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-115036.01414631</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-118527.13724631</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-116603.77997355</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-120383.47517355</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-119909.36167355</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
